--- a/biology/Botanique/Piptadeniastrum_africanum/Piptadeniastrum_africanum.xlsx
+++ b/biology/Botanique/Piptadeniastrum_africanum/Piptadeniastrum_africanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piptadeniastrum africanum est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Afrique tropicale.
 Ce sont des arbres  de grande taille, pouvant atteindre 50 mètres de haut, au fût cylindrique rectiligne, muni à la base de contreforts de 5 à 8 mètres de haut, qui se rencontre dans les forêts tropicales d'Afrique occidentale et centrale.
@@ -513,10 +525,12 @@
           <t>Caractéristiques du bois</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bois de cœur brun, avec veines qui présente une couleur de l'aubier différente du bois de cœur
-Les limites de cernes sont indistinctes ou absentes. L'odeur désagréable de ce bois à l'état vert ou en cas de réhumidification doit être prise en compte selon le type d'ouvrage et sa destination[2]. Il sent toujours de près sec.
+Les limites de cernes sont indistinctes ou absentes. L'odeur désagréable de ce bois à l'état vert ou en cas de réhumidification doit être prise en compte selon le type d'ouvrage et sa destination. Il sent toujours de près sec.
 La densité basale est de 0,6 à 0,74 g cm−3.
 Le bois du dabéma est très dur et donc utilisé pour la confection des soubassements des bateaux.
 </t>
@@ -549,12 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des variétés
-Selon Tropicos                                           (10 novembre 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Piptadeniastrum africanum var. africanum
-Piptadeniastrum africanum var. brachysperma Pellegr.
-Synonymes
-Selon The Plant List            (10 novembre 2018)[1] :
+Piptadeniastrum africanum var. brachysperma Pellegr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Piptadeniastrum_africanum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Piptadeniastrum_africanum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 novembre 2018) :
 Piptadenia africana Hook.f. (basionyme)
 Piptadeniastrum africanum var. africanum</t>
         </is>
